--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>0.0408274122245</v>
+        <v>0.6034276939350001</v>
       </c>
       <c r="R2">
-        <v>0.244964473347</v>
+        <v>3.62056616361</v>
       </c>
       <c r="S2">
-        <v>0.01528202769343771</v>
+        <v>0.05557415664482749</v>
       </c>
       <c r="T2">
-        <v>0.01037828266171053</v>
+        <v>0.04578710531216289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>0.0153535611845</v>
+        <v>3.2535279655725</v>
       </c>
       <c r="R3">
-        <v>0.09212136710700002</v>
+        <v>19.521167793435</v>
       </c>
       <c r="S3">
-        <v>0.00574696103500821</v>
+        <v>0.2996416548732841</v>
       </c>
       <c r="T3">
-        <v>0.003902858132678516</v>
+        <v>0.2468723744253306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>0.05523761962199999</v>
+        <v>0.808984422675</v>
       </c>
       <c r="R4">
-        <v>0.497138576598</v>
+        <v>4.85390653605</v>
       </c>
       <c r="S4">
-        <v>0.02067588384346396</v>
+        <v>0.07450540881839048</v>
       </c>
       <c r="T4">
-        <v>0.02106201197047033</v>
+        <v>0.06138441329295288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H5">
         <v>2.626902</v>
       </c>
       <c r="I5">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J5">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N5">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O5">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P5">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q5">
-        <v>0.020772665382</v>
+        <v>0.142391514788</v>
       </c>
       <c r="R5">
-        <v>0.186953988438</v>
+        <v>1.281523633092</v>
       </c>
       <c r="S5">
-        <v>0.007775375179025975</v>
+        <v>0.01311389654014618</v>
       </c>
       <c r="T5">
-        <v>0.007920582565437085</v>
+        <v>0.01620665246727683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.8756340000000001</v>
+      </c>
+      <c r="H6">
+        <v>2.626902</v>
+      </c>
+      <c r="I6">
+        <v>0.1014018019313074</v>
+      </c>
+      <c r="J6">
+        <v>0.1253162062416287</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.540639</v>
-      </c>
-      <c r="H6">
-        <v>10.621917</v>
-      </c>
-      <c r="I6">
-        <v>0.1150430856889177</v>
-      </c>
-      <c r="J6">
-        <v>0.1171915486778959</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N6">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O6">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P6">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q6">
-        <v>0.223354130037</v>
+        <v>0.7677386703980001</v>
       </c>
       <c r="R6">
-        <v>2.010187170333</v>
+        <v>6.909648033582001</v>
       </c>
       <c r="S6">
-        <v>0.08360324141780515</v>
+        <v>0.07070677988403028</v>
       </c>
       <c r="T6">
-        <v>0.08516455619712583</v>
+        <v>0.08738212972419451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.8756340000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.626902</v>
+      </c>
+      <c r="I7">
+        <v>0.1014018019313074</v>
+      </c>
+      <c r="J7">
+        <v>0.1253162062416287</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.540639</v>
-      </c>
-      <c r="H7">
-        <v>10.621917</v>
-      </c>
-      <c r="I7">
-        <v>0.1150430856889177</v>
-      </c>
-      <c r="J7">
-        <v>0.1171915486778959</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N7">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O7">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P7">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q7">
-        <v>0.08399457899700002</v>
+        <v>0.19089696834</v>
       </c>
       <c r="R7">
-        <v>0.7559512109730001</v>
+        <v>1.71807271506</v>
       </c>
       <c r="S7">
-        <v>0.03143984427111253</v>
+        <v>0.01758112550713094</v>
       </c>
       <c r="T7">
-        <v>0.03202699248077004</v>
+        <v>0.02172742405015735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -912,54 +912,54 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H8">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I8">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J8">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N8">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O8">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P8">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q8">
-        <v>0.06595169942500001</v>
+        <v>0.1704809828015555</v>
       </c>
       <c r="R8">
-        <v>0.3957101965500001</v>
+        <v>1.534328845214</v>
       </c>
       <c r="S8">
-        <v>0.02468624980442227</v>
+        <v>0.01570086513828175</v>
       </c>
       <c r="T8">
-        <v>0.01676484845253266</v>
+        <v>0.01940372672246797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H9">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I9">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J9">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N9">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O9">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P9">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q9">
-        <v>0.02480180342500001</v>
+        <v>0.9191899057965556</v>
       </c>
       <c r="R9">
-        <v>0.1488108205500001</v>
+        <v>8.272709152169</v>
       </c>
       <c r="S9">
-        <v>0.009283513848585348</v>
+        <v>0.08465505366179726</v>
       </c>
       <c r="T9">
-        <v>0.006304590774684656</v>
+        <v>0.1046199373386337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.048369666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.145109</v>
+      </c>
+      <c r="I10">
+        <v>0.1214052598347301</v>
+      </c>
+      <c r="J10">
+        <v>0.1500372408625836</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.243757666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.731273</v>
-      </c>
-      <c r="I10">
-        <v>0.04041240008444284</v>
-      </c>
-      <c r="J10">
-        <v>0.04116711337605242</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N10">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O10">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P10">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q10">
-        <v>0.07845996488633332</v>
+        <v>0.22855507103</v>
       </c>
       <c r="R10">
-        <v>0.706139683977</v>
+        <v>2.05699563927</v>
       </c>
       <c r="S10">
-        <v>0.02936819384059751</v>
+        <v>0.02104934103465112</v>
       </c>
       <c r="T10">
-        <v>0.02991665337766415</v>
+        <v>0.02601357680148187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H11">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I11">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J11">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N11">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O11">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P11">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q11">
-        <v>0.02950566312633334</v>
+        <v>0.200490802389</v>
       </c>
       <c r="R11">
-        <v>0.265550968137</v>
+        <v>1.202944814334</v>
       </c>
       <c r="S11">
-        <v>0.01104420624384533</v>
+        <v>0.01846469323466889</v>
       </c>
       <c r="T11">
-        <v>0.01125045999838826</v>
+        <v>0.01521291378465308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.2329145</v>
+      </c>
+      <c r="H12">
+        <v>2.465829</v>
+      </c>
+      <c r="I12">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J12">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H12">
-        <v>70.271782</v>
-      </c>
-      <c r="I12">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J12">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N12">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O12">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P12">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q12">
-        <v>1.477651607968667</v>
+        <v>1.0809951862815</v>
       </c>
       <c r="R12">
-        <v>13.298864471718</v>
+        <v>6.485971117689001</v>
       </c>
       <c r="S12">
-        <v>0.5530968426325845</v>
+        <v>0.09955690867112202</v>
       </c>
       <c r="T12">
-        <v>0.5634260865728075</v>
+        <v>0.08202414462194663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.2329145</v>
+      </c>
+      <c r="H13">
+        <v>2.465829</v>
+      </c>
+      <c r="I13">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J13">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H13">
-        <v>70.271782</v>
-      </c>
-      <c r="I13">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J13">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N13">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O13">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P13">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q13">
-        <v>0.5556858281286668</v>
+        <v>0.268787690145</v>
       </c>
       <c r="R13">
-        <v>5.001172453158</v>
+        <v>1.61272614087</v>
       </c>
       <c r="S13">
-        <v>0.2079976601901115</v>
+        <v>0.02475466298026527</v>
       </c>
       <c r="T13">
-        <v>0.2118820768157303</v>
+        <v>0.02039516979246864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H14">
+        <v>2.886924</v>
+      </c>
+      <c r="I14">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J14">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.487846</v>
+      </c>
+      <c r="O14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q14">
+        <v>0.1564860361893333</v>
+      </c>
+      <c r="R14">
+        <v>1.408374325704</v>
+      </c>
+      <c r="S14">
+        <v>0.01441196613168857</v>
+      </c>
+      <c r="T14">
+        <v>0.01781085627383156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H15">
+        <v>2.886924</v>
+      </c>
+      <c r="I15">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J15">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.630341</v>
+      </c>
+      <c r="O15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q15">
+        <v>0.8437327290093334</v>
+      </c>
+      <c r="R15">
+        <v>7.593594561084</v>
+      </c>
+      <c r="S15">
+        <v>0.07770563949851354</v>
+      </c>
+      <c r="T15">
+        <v>0.09603158681667245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.886924</v>
+      </c>
+      <c r="I16">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J16">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.21801</v>
+      </c>
+      <c r="N16">
+        <v>0.65403</v>
+      </c>
+      <c r="O16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q16">
+        <v>0.20979276708</v>
+      </c>
+      <c r="R16">
+        <v>1.88813490372</v>
+      </c>
+      <c r="S16">
+        <v>0.01932138053629275</v>
+      </c>
+      <c r="T16">
+        <v>0.02387809745037175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.41589</v>
+      </c>
+      <c r="I17">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J17">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.487846</v>
+      </c>
+      <c r="O17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q17">
+        <v>0.1309535858822222</v>
+      </c>
+      <c r="R17">
+        <v>1.17858227294</v>
+      </c>
+      <c r="S17">
+        <v>0.01206049236415129</v>
+      </c>
+      <c r="T17">
+        <v>0.01490481549337182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.41589</v>
+      </c>
+      <c r="I18">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J18">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.630341</v>
+      </c>
+      <c r="O18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q18">
+        <v>0.7060682798322223</v>
+      </c>
+      <c r="R18">
+        <v>6.35461451849</v>
+      </c>
+      <c r="S18">
+        <v>0.06502709368451122</v>
+      </c>
+      <c r="T18">
+        <v>0.08036295734648048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.41589</v>
+      </c>
+      <c r="I19">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J19">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.21801</v>
+      </c>
+      <c r="N19">
+        <v>0.65403</v>
+      </c>
+      <c r="O19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q19">
+        <v>0.1755627263</v>
+      </c>
+      <c r="R19">
+        <v>1.5800645367</v>
+      </c>
+      <c r="S19">
+        <v>0.0161688807962469</v>
+      </c>
+      <c r="T19">
+        <v>0.01998211828554496</v>
       </c>
     </row>
   </sheetData>
